--- a/biology/Zoologie/Coeliades/Coeliades.xlsx
+++ b/biology/Zoologie/Coeliades/Coeliades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Coeliades regroupe des lépidoptères (papillons) de la famille des Hesperiidae et de la sous-famille des Coeliadinae présents en Afrique.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont été nommés Coeliades par Hübner en 1818.
-En anglais ils sont appelés Policemen[1].
+En anglais ils sont appelés Policemen.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Coeliades aeschylus (Plötz, 1884)
 Coeliades anchises (Gerstaecker, 1871); sur la côte est de l'Afrique.
@@ -557,7 +573,7 @@
 Coeliades ernesti (Grandidier, 1867); à Madagascar.
 Coeliades fervida (Butler, 1880); à Madagascar.
 Coeliades fidia Evans, 1937; à Madagascar.
-Coeliades forestan (Stoll, [1782]) dans le sud de l'Afrique.
+Coeliades forestan (Stoll, ) dans le sud de l'Afrique.
 Coeliades forestan forestan
 Coeliades forestan arbogastes (Guenee, 1863)à Madagascar.
 Coeliades hanno (Plötz, 1879) au Sénégal et dans l'ouest du Kenya.
